--- a/global_data/day_data/601877.xlsx
+++ b/global_data/day_data/601877.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3566"/>
+  <dimension ref="A1:I3568"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -103822,6 +103824,64 @@
         <v>0.003324775778428921</v>
       </c>
     </row>
+    <row r="3567" spans="1:9">
+      <c r="A3567" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B3567">
+        <v>22.4</v>
+      </c>
+      <c r="C3567">
+        <v>22.61</v>
+      </c>
+      <c r="D3567">
+        <v>22.38</v>
+      </c>
+      <c r="E3567">
+        <v>22.47</v>
+      </c>
+      <c r="F3567">
+        <v>6959852</v>
+      </c>
+      <c r="G3567">
+        <v>156521124</v>
+      </c>
+      <c r="H3567">
+        <v>2148968976</v>
+      </c>
+      <c r="I3567">
+        <v>0.003238693567812586</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:9">
+      <c r="A3568" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B3568">
+        <v>22.48</v>
+      </c>
+      <c r="C3568">
+        <v>22.5</v>
+      </c>
+      <c r="D3568">
+        <v>22.19</v>
+      </c>
+      <c r="E3568">
+        <v>22.27</v>
+      </c>
+      <c r="F3568">
+        <v>13126406</v>
+      </c>
+      <c r="G3568">
+        <v>292333766</v>
+      </c>
+      <c r="H3568">
+        <v>2148968976</v>
+      </c>
+      <c r="I3568">
+        <v>0.006108234295886829</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
